--- a/Perceptron.xlsx
+++ b/Perceptron.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/vsmrnb_umsystem_edu/Documents/Obsidian Vault/Electrical Engineering Notes/Computers/Deep Learning/Perceptron/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/vsmrnb_umsystem_edu/Documents/Obsidian Vault/Electrical Engineering Notes/Computers/Deep Learning/Perceptron/Perceptron_Excel_Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E86D17-2993-4B54-8D59-71CB82CC294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A2E86D17-2993-4B54-8D59-71CB82CC294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF397BC6-5AE9-4DEB-A52D-A89989EB8AFF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA50080E-73E3-4AA5-9B08-5329686F630D}"/>
   </bookViews>
@@ -124,10 +124,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,7 +426,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L49"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
